--- a/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>活动id</t>
   </si>
@@ -75,181 +75,372 @@
     <t>ActivityLevelLow</t>
   </si>
   <si>
+    <t>IsShowEntrance</t>
+  </si>
+  <si>
+    <t>EntranceIcon</t>
+  </si>
+  <si>
+    <t>IsShowInterface</t>
+  </si>
+  <si>
+    <t>InterfaceIcon</t>
+  </si>
+  <si>
+    <t>StartTimeWeek</t>
+  </si>
+  <si>
+    <t>EndTimeWeek</t>
+  </si>
+  <si>
+    <t>StartTimeDate</t>
+  </si>
+  <si>
+    <t>EndTimeDate</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>RewardIcon</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>异化魔龙</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>一骑当千</t>
+  </si>
+  <si>
+    <t>怪物攻城</t>
+  </si>
+  <si>
+    <t>美女连连看</t>
+  </si>
+  <si>
+    <t>大家来杀人</t>
+  </si>
+  <si>
+    <t>七夕节奖励</t>
+  </si>
+  <si>
+    <t>23:59:50</t>
+  </si>
+  <si>
+    <t>魔龙前</t>
+  </si>
+  <si>
+    <t>七夕节礼包</t>
+  </si>
+  <si>
+    <t>维护补偿</t>
+  </si>
+  <si>
+    <t>周1-周3活动</t>
+  </si>
+  <si>
+    <t>不定期活动1-1</t>
+  </si>
+  <si>
+    <t>不定期活动1-2</t>
+  </si>
+  <si>
+    <t>不定期活动1-3</t>
+  </si>
+  <si>
+    <t>大逃杀</t>
+  </si>
+  <si>
+    <t>2012.11.2,run</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.2,dragon</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.3,run</t>
+  </si>
+  <si>
+    <t>2012.11.4,run</t>
+  </si>
+  <si>
+    <t>2012.11.5,run</t>
+  </si>
+  <si>
+    <t>2012.11.6,run</t>
+  </si>
+  <si>
+    <t>2012.11.7,run</t>
+  </si>
+  <si>
+    <t>2012.11.8,run</t>
+  </si>
+  <si>
+    <t>2012.11.9,run</t>
+  </si>
+  <si>
+    <t>2012.11.10,run</t>
+  </si>
+  <si>
+    <t>2012.11.11,run</t>
+  </si>
+  <si>
+    <t>2012.11.12,run</t>
+  </si>
+  <si>
+    <t>2012.11.13,run</t>
+  </si>
+  <si>
+    <t>2012.11.14,run</t>
+  </si>
+  <si>
+    <t>2012.11.15,run</t>
+  </si>
+  <si>
+    <t>2012.11.16,run</t>
+  </si>
+  <si>
+    <t>2012.11.3,dragon</t>
+  </si>
+  <si>
+    <t>2012.11.4,dragon</t>
+  </si>
+  <si>
+    <t>2012.11.5,dragon</t>
+  </si>
+  <si>
+    <t>2012.11.6,dragon</t>
+  </si>
+  <si>
+    <t>2012.11.7,dragon</t>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>ActivityLevelHigh</t>
-  </si>
-  <si>
-    <t>IsShowEntrance</t>
-  </si>
-  <si>
-    <t>EntranceIcon</t>
-  </si>
-  <si>
-    <t>IsShowInterface</t>
-  </si>
-  <si>
-    <t>InterfaceIcon</t>
-  </si>
-  <si>
-    <t>StartTimeWeek</t>
-  </si>
-  <si>
-    <t>EndTimeWeek</t>
-  </si>
-  <si>
-    <t>StartTimeDate</t>
-  </si>
-  <si>
-    <t>EndTimeDate</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>RewardIcon</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>string[]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>cs</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>异化魔龙</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>一骑当千</t>
-  </si>
-  <si>
-    <t>怪物攻城</t>
-  </si>
-  <si>
-    <t>美女连连看</t>
-  </si>
-  <si>
-    <t>大家来杀人</t>
-  </si>
-  <si>
-    <t>七夕节奖励</t>
-  </si>
-  <si>
-    <t>23:59:50</t>
-  </si>
-  <si>
-    <t>魔龙前</t>
-  </si>
-  <si>
-    <t>七夕节礼包</t>
-  </si>
-  <si>
-    <t>维护补偿</t>
-  </si>
-  <si>
-    <t>周1-周3活动</t>
-  </si>
-  <si>
-    <t>不定期活动1-1</t>
-  </si>
-  <si>
-    <t>不定期活动1-2</t>
-  </si>
-  <si>
-    <t>不定期活动1-3</t>
-  </si>
-  <si>
-    <t>大逃杀</t>
-  </si>
-  <si>
-    <t>2012.11.2,run</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.11.2,dragon</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.11.3,run</t>
-  </si>
-  <si>
-    <t>2012.11.4,run</t>
-  </si>
-  <si>
-    <t>2012.11.5,run</t>
-  </si>
-  <si>
-    <t>2012.11.6,run</t>
-  </si>
-  <si>
-    <t>2012.11.7,run</t>
-  </si>
-  <si>
-    <t>2012.11.8,run</t>
-  </si>
-  <si>
-    <t>2012.11.9,run</t>
-  </si>
-  <si>
-    <t>2012.11.10,run</t>
-  </si>
-  <si>
-    <t>2012.11.11,run</t>
-  </si>
-  <si>
-    <t>2012.11.12,run</t>
-  </si>
-  <si>
-    <t>2012.11.13,run</t>
-  </si>
-  <si>
-    <t>2012.11.14,run</t>
-  </si>
-  <si>
-    <t>2012.11.15,run</t>
-  </si>
-  <si>
-    <t>2012.11.16,run</t>
-  </si>
-  <si>
-    <t>2012.11.3,dragon</t>
-  </si>
-  <si>
-    <t>2012.11.4,dragon</t>
-  </si>
-  <si>
-    <t>2012.11.5,dragon</t>
-  </si>
-  <si>
-    <t>2012.11.6,dragon</t>
-  </si>
-  <si>
-    <t>2012.11.7,dragon</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据某些condition执行某些action;
+目前不支持括号和或.全部用&amp;&amp;(与)和!(非)表示
+满足一个条件可以执行多个action.可以写在一行(支持多个),或者多行.
+需要保证一个condition和至少一个action.如果没有也没啥.
+Action:调用玩家的或者帮会等的函数接口.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:player.trigTask(13)
+action:player.doaward(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:player.mailto(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:level&gt;ActivityLevelHigh&amp;&amp;VIP&lt;5&amp;&amp;!league</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:level&gt;ActivityLevelHigh&amp;&amp;VIP&gt;15&amp;&amp;league</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:league.mailtodynamic(12,"动态礼包")</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:client.say(1,"test")</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>date,date</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间结构体.比如说活动开启结束时间</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4,</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-20:0:0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:0:0,20:0:2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0,0:3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:6</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:7</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:8</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:9</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:10</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:11</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:12</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:13</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:14</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:15</t>
+  </si>
+  <si>
+    <t>测试时间数组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>date[]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:2</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:3</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:4</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:5</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:6</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:7</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:8</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:9</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:10</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:11</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:12</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:13</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:14</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:15</t>
+  </si>
+  <si>
+    <t>testdate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>,26-20:0:0,26-20:0:1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:1,</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDateStruct
+[begin,end]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateArray</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:00</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -779,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -807,6 +998,12 @@
     </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1150,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1167,10 +1364,14 @@
     <col min="14" max="14" width="18.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.75" style="1" bestFit="1"/>
-    <col min="17" max="16384" width="11.75" style="1"/>
+    <col min="17" max="17" width="33.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1219,163 +1420,211 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1384,16 +1633,16 @@
         <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1402,16 +1651,16 @@
         <v>7</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O5" s="5">
         <v>10001</v>
@@ -1419,13 +1668,25 @@
       <c r="P5" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1434,16 +1695,16 @@
         <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1452,16 +1713,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="5">
         <v>10002</v>
@@ -1469,13 +1730,25 @@
       <c r="P6" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1484,16 +1757,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -1502,16 +1775,16 @@
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" s="5">
         <v>10003</v>
@@ -1519,13 +1792,25 @@
       <c r="P7" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1534,16 +1819,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -1552,16 +1837,16 @@
         <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5">
         <v>10004</v>
@@ -1569,13 +1854,22 @@
       <c r="P8" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1584,16 +1878,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1602,16 +1896,16 @@
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" s="5">
         <v>10005</v>
@@ -1619,13 +1913,22 @@
       <c r="P9" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1634,16 +1937,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1652,16 +1955,16 @@
         <v>7</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O10" s="5">
         <v>10006</v>
@@ -1669,13 +1972,22 @@
       <c r="P10" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1684,13 +1996,13 @@
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7">
@@ -1700,16 +2012,16 @@
         <v>7</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O11" s="5">
         <v>10007</v>
@@ -1717,13 +2029,20 @@
       <c r="P11" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q11" s="5"/>
+      <c r="S11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1732,13 +2051,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="7">
@@ -1748,16 +2067,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O12" s="5">
         <v>1002</v>
@@ -1765,13 +2084,20 @@
       <c r="P12" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q12" s="5"/>
+      <c r="S12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1780,13 +2106,13 @@
         <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7">
@@ -1796,16 +2122,16 @@
         <v>7</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O13" s="5">
         <v>1003</v>
@@ -1813,13 +2139,20 @@
       <c r="P13" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q13" s="5"/>
+      <c r="S13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1828,13 +2161,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7">
@@ -1844,16 +2177,16 @@
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="5">
         <v>1004</v>
@@ -1861,13 +2194,20 @@
       <c r="P14" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q14" s="5"/>
+      <c r="S14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1876,13 +2216,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7">
@@ -1892,16 +2232,16 @@
         <v>7</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="5">
         <v>1005</v>
@@ -1909,13 +2249,20 @@
       <c r="P15" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q15" s="5"/>
+      <c r="S15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1924,13 +2271,13 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7">
@@ -1940,16 +2287,16 @@
         <v>7</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="5">
         <v>1006</v>
@@ -1957,13 +2304,20 @@
       <c r="P16" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q16" s="5"/>
+      <c r="S16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1972,13 +2326,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="7">
@@ -1988,16 +2342,16 @@
         <v>7</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O17" s="5">
         <v>1007</v>
@@ -2005,13 +2359,20 @@
       <c r="P17" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q17" s="5"/>
+      <c r="S17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -2020,16 +2381,16 @@
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -2038,16 +2399,16 @@
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O18" s="5">
         <v>10008</v>
@@ -2055,46 +2416,53 @@
       <c r="P18" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q18" s="5"/>
+      <c r="S18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
@@ -16,15 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
-  <si>
-    <t>活动id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
   <si>
     <t>活动名称</t>
-  </si>
-  <si>
-    <t>显示等级下限,不到等级（不包括自身）不显示</t>
   </si>
   <si>
     <t>显示等级上限，超过等级（不包括自身）不显示</t>
@@ -440,6 +434,18 @@
   </si>
   <si>
     <t>0:00</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#显示等级下限,不到等级（不包括自身）不显示</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1349,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1373,250 +1379,250 @@
   <sheetData>
     <row r="1" spans="1:20" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1624,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1633,16 +1639,16 @@
         <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1651,16 +1657,16 @@
         <v>7</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O5" s="5">
         <v>10001</v>
@@ -1669,24 +1675,24 @@
         <v>28</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R5" s="11">
         <v>0.83333333333333337</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>2</v>
+      <c r="A6" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1695,16 +1701,16 @@
         <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1713,16 +1719,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" s="5">
         <v>10002</v>
@@ -1731,16 +1737,16 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1748,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1757,16 +1763,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -1775,16 +1781,16 @@
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O7" s="5">
         <v>10003</v>
@@ -1793,16 +1799,16 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1810,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1819,16 +1825,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -1837,16 +1843,16 @@
         <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O8" s="5">
         <v>10004</v>
@@ -1855,13 +1861,13 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1869,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1878,16 +1884,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1896,16 +1902,16 @@
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O9" s="5">
         <v>10005</v>
@@ -1914,13 +1920,13 @@
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1928,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1937,16 +1943,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1955,16 +1961,16 @@
         <v>7</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O10" s="5">
         <v>10006</v>
@@ -1973,13 +1979,13 @@
         <v>28</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -1987,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1996,13 +2002,13 @@
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7">
@@ -2012,16 +2018,16 @@
         <v>7</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O11" s="5">
         <v>10007</v>
@@ -2031,10 +2037,10 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="S11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -2042,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2051,13 +2057,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="7">
@@ -2067,16 +2073,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O12" s="5">
         <v>1002</v>
@@ -2086,10 +2092,10 @@
       </c>
       <c r="Q12" s="5"/>
       <c r="S12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -2097,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2106,13 +2112,13 @@
         <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7">
@@ -2122,16 +2128,16 @@
         <v>7</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O13" s="5">
         <v>1003</v>
@@ -2141,10 +2147,10 @@
       </c>
       <c r="Q13" s="5"/>
       <c r="S13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -2152,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2161,13 +2167,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7">
@@ -2177,16 +2183,16 @@
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="5">
         <v>1004</v>
@@ -2196,10 +2202,10 @@
       </c>
       <c r="Q14" s="5"/>
       <c r="S14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
@@ -2207,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2216,13 +2222,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7">
@@ -2232,16 +2238,16 @@
         <v>7</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="5">
         <v>1005</v>
@@ -2251,10 +2257,10 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="S15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -2262,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -2271,13 +2277,13 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7">
@@ -2287,16 +2293,16 @@
         <v>7</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O16" s="5">
         <v>1006</v>
@@ -2306,10 +2312,10 @@
       </c>
       <c r="Q16" s="5"/>
       <c r="S16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
@@ -2317,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -2326,13 +2332,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="7">
@@ -2342,16 +2348,16 @@
         <v>7</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O17" s="5">
         <v>1007</v>
@@ -2361,10 +2367,10 @@
       </c>
       <c r="Q17" s="5"/>
       <c r="S17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
@@ -2372,7 +2378,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -2381,16 +2387,16 @@
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -2399,16 +2405,16 @@
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O18" s="5">
         <v>10008</v>
@@ -2418,15 +2424,15 @@
       </c>
       <c r="Q18" s="5"/>
       <c r="S18" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>

--- a/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>活动名称</t>
   </si>
@@ -90,18 +90,12 @@
     <t>StartTimeDate</t>
   </si>
   <si>
-    <t>EndTimeDate</t>
-  </si>
-  <si>
     <t>StartTime</t>
   </si>
   <si>
     <t>EndTime</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>RewardIcon</t>
   </si>
   <si>
@@ -244,10 +238,6 @@
   </si>
   <si>
     <t>condition</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>use</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -267,31 +257,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>action:player.trigTask(13)
-action:player.doaward(13)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:player.mailto(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:level&gt;ActivityLevelHigh&amp;&amp;VIP&lt;5&amp;&amp;!league</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:level&gt;ActivityLevelHigh&amp;&amp;VIP&gt;15&amp;&amp;league</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:league.mailtodynamic(12,"动态礼包")</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:client.say(1,"test")</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>测试时间</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -446,6 +411,38 @@
   </si>
   <si>
     <t>#2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTimeDate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Say(12,"动态礼包")</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&lt;Description</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP&gt;EndTimeDate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Mail(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:TrigerTask(13)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1355,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1379,13 +1376,13 @@
   <sheetData>
     <row r="1" spans="1:20" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1427,78 +1424,78 @@
         <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1512,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
@@ -1536,93 +1533,93 @@
         <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1630,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1639,16 +1636,16 @@
         <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1657,16 +1654,16 @@
         <v>7</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O5" s="5">
         <v>10001</v>
@@ -1675,24 +1672,24 @@
         <v>28</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="R5" s="11">
         <v>0.83333333333333337</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1701,16 +1698,16 @@
         <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1719,16 +1716,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O6" s="5">
         <v>10002</v>
@@ -1737,16 +1734,16 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1754,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1763,16 +1760,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -1781,16 +1778,16 @@
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O7" s="5">
         <v>10003</v>
@@ -1799,16 +1796,16 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="T7" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1816,7 +1813,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1825,16 +1822,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -1843,16 +1840,16 @@
         <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O8" s="5">
         <v>10004</v>
@@ -1861,13 +1858,13 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1875,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1884,16 +1881,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1902,16 +1899,16 @@
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O9" s="5">
         <v>10005</v>
@@ -1920,13 +1917,13 @@
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1934,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1943,16 +1940,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1961,16 +1958,16 @@
         <v>7</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O10" s="5">
         <v>10006</v>
@@ -1978,14 +1975,12 @@
       <c r="P10" s="5">
         <v>28</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="Q10" s="5"/>
       <c r="S10" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -1993,7 +1988,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -2002,13 +1997,13 @@
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7">
@@ -2018,16 +2013,16 @@
         <v>7</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O11" s="5">
         <v>10007</v>
@@ -2037,10 +2032,10 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="S11" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -2048,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2057,13 +2052,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="7">
@@ -2073,16 +2068,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O12" s="5">
         <v>1002</v>
@@ -2092,10 +2087,10 @@
       </c>
       <c r="Q12" s="5"/>
       <c r="S12" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -2103,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2112,13 +2107,13 @@
         <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7">
@@ -2128,16 +2123,16 @@
         <v>7</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O13" s="5">
         <v>1003</v>
@@ -2147,10 +2142,10 @@
       </c>
       <c r="Q13" s="5"/>
       <c r="S13" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -2158,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2167,13 +2162,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7">
@@ -2183,16 +2178,16 @@
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="5">
         <v>1004</v>
@@ -2202,10 +2197,10 @@
       </c>
       <c r="Q14" s="5"/>
       <c r="S14" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
@@ -2213,7 +2208,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2222,13 +2217,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7">
@@ -2238,16 +2233,16 @@
         <v>7</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O15" s="5">
         <v>1005</v>
@@ -2257,10 +2252,10 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="S15" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -2268,7 +2263,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -2277,13 +2272,13 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7">
@@ -2293,16 +2288,16 @@
         <v>7</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O16" s="5">
         <v>1006</v>
@@ -2312,10 +2307,10 @@
       </c>
       <c r="Q16" s="5"/>
       <c r="S16" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
@@ -2323,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -2332,13 +2327,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="7">
@@ -2348,16 +2343,16 @@
         <v>7</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O17" s="5">
         <v>1007</v>
@@ -2367,10 +2362,10 @@
       </c>
       <c r="Q17" s="5"/>
       <c r="S17" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
@@ -2378,7 +2373,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -2387,16 +2382,16 @@
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -2405,16 +2400,16 @@
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O18" s="5">
         <v>10008</v>
@@ -2424,15 +2419,15 @@
       </c>
       <c r="Q18" s="5"/>
       <c r="S18" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F19" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>

--- a/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
   <si>
     <t>活动名称</t>
   </si>
@@ -277,10 +277,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>26-20:0:0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>0,</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -378,14 +374,6 @@
   </si>
   <si>
     <t>testdate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>,26-20:0:0,26-20:0:1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:1,</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1352,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1376,13 +1364,13 @@
   <sheetData>
     <row r="1" spans="1:20" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1433,7 +1421,7 @@
         <v>79</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -1495,7 +1483,7 @@
         <v>78</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1533,7 +1521,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>24</v>
@@ -1542,22 +1530,22 @@
         <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="T3" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -1613,13 +1601,13 @@
         <v>74</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1672,21 +1660,21 @@
         <v>28</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R5" s="11">
         <v>0.83333333333333337</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>36</v>
@@ -1734,16 +1722,16 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1796,16 +1784,16 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>80</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1858,13 +1846,13 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1917,13 +1905,13 @@
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
@@ -1977,10 +1965,10 @@
       </c>
       <c r="Q10" s="5"/>
       <c r="S10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -2032,10 +2020,10 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="S11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -2087,10 +2075,10 @@
       </c>
       <c r="Q12" s="5"/>
       <c r="S12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -2142,10 +2130,10 @@
       </c>
       <c r="Q13" s="5"/>
       <c r="S13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -2197,10 +2185,10 @@
       </c>
       <c r="Q14" s="5"/>
       <c r="S14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
@@ -2252,10 +2240,10 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="S15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -2307,10 +2295,10 @@
       </c>
       <c r="Q16" s="5"/>
       <c r="S16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
@@ -2362,10 +2350,10 @@
       </c>
       <c r="Q17" s="5"/>
       <c r="S17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
@@ -2419,10 +2407,10 @@
       </c>
       <c r="Q18" s="5"/>
       <c r="S18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">

--- a/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
@@ -418,19 +418,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&lt;Description</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP&gt;EndTimeDate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>action:Mail(12)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>action:TrigerTask(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;Description || testdate ==dateTest)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1355,7 +1355,7 @@
     <col min="14" max="14" width="18.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.75" style="1" bestFit="1"/>
-    <col min="17" max="17" width="33.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40" style="10" customWidth="1"/>
     <col min="18" max="18" width="15.875" style="1" customWidth="1"/>
     <col min="19" max="19" width="28.625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.75" style="1" customWidth="1"/>
@@ -1610,7 +1610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>28</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R5" s="11">
         <v>0.83333333333333337</v>
@@ -1722,7 +1722,7 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>114</v>
@@ -1784,7 +1784,7 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>81</v>
@@ -1846,7 +1846,7 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>84</v>

--- a/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/#ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
   <si>
     <t>活动名称</t>
   </si>
@@ -75,9 +75,6 @@
     <t>EntranceIcon</t>
   </si>
   <si>
-    <t>IsShowInterface</t>
-  </si>
-  <si>
     <t>InterfaceIcon</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>EndTime</t>
-  </si>
-  <si>
-    <t>RewardIcon</t>
   </si>
   <si>
     <t>int</t>
@@ -402,35 +396,67 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>EndTimeDate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Say(12,"动态礼包")</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Mail(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:TrigerTask(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;Description || testdate ==dateTest)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;(Description + startTimeDate) || testdate ==datetest) &amp;&amp; (pow(doubleTest , double2test) &gt; double3test)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowInterface</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>Description</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>EndTimeDate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:Say(12,"动态礼包")</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:Mail(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:TrigerTask(13)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;Description || testdate ==dateTest)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate</t>
+    <t>RewardIcon</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate || TEST_MULIT_ARGS(IsShowInterface , Description,int64Test,doubleTest,RewardIcon,dateTest)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1338,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1355,22 +1381,22 @@
     <col min="14" max="14" width="18.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.75" style="1" bestFit="1"/>
-    <col min="17" max="17" width="40" style="10" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="28.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.75" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.75" style="1"/>
+    <col min="17" max="19" width="40" style="10" customWidth="1"/>
+    <col min="20" max="20" width="15.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1412,81 +1438,93 @@
         <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>95</v>
+      <c r="V2" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
@@ -1506,116 +1544,128 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="O3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>113</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1624,16 +1674,16 @@
         <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -1642,16 +1692,16 @@
         <v>7</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O5" s="5">
         <v>10001</v>
@@ -1660,24 +1710,30 @@
         <v>28</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" s="11">
+        <v>127</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>97</v>
+      <c r="U5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1686,16 +1742,16 @@
         <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1704,16 +1760,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O6" s="5">
         <v>10002</v>
@@ -1722,24 +1778,30 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1748,16 +1810,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -1766,16 +1828,16 @@
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O7" s="5">
         <v>10003</v>
@@ -1784,24 +1846,30 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1810,16 +1878,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -1828,16 +1896,16 @@
         <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O8" s="5">
         <v>10004</v>
@@ -1846,21 +1914,27 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1869,16 +1943,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1887,16 +1961,16 @@
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O9" s="5">
         <v>10005</v>
@@ -1905,21 +1979,27 @@
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1928,16 +2008,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -1946,16 +2026,16 @@
         <v>7</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O10" s="5">
         <v>10006</v>
@@ -1963,20 +2043,24 @@
       <c r="P10" s="5">
         <v>28</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="S10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>102</v>
+      <c r="Q10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="U10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1985,13 +2069,13 @@
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7">
@@ -2001,16 +2085,16 @@
         <v>7</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O11" s="5">
         <v>10007</v>
@@ -2019,19 +2103,21 @@
         <v>28</v>
       </c>
       <c r="Q11" s="5"/>
-      <c r="S11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>103</v>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="U11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2040,13 +2126,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="7">
@@ -2056,16 +2142,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O12" s="5">
         <v>1002</v>
@@ -2074,19 +2160,21 @@
         <v>28</v>
       </c>
       <c r="Q12" s="5"/>
-      <c r="S12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>104</v>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="U12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2095,13 +2183,13 @@
         <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7">
@@ -2111,16 +2199,16 @@
         <v>7</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="5">
         <v>1003</v>
@@ -2129,19 +2217,21 @@
         <v>28</v>
       </c>
       <c r="Q13" s="5"/>
-      <c r="S13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>105</v>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="U13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2150,13 +2240,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7">
@@ -2166,16 +2256,16 @@
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="5">
         <v>1004</v>
@@ -2184,19 +2274,21 @@
         <v>28</v>
       </c>
       <c r="Q14" s="5"/>
-      <c r="S14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>106</v>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="U14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2205,13 +2297,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7">
@@ -2221,16 +2313,16 @@
         <v>7</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O15" s="5">
         <v>1005</v>
@@ -2239,19 +2331,21 @@
         <v>28</v>
       </c>
       <c r="Q15" s="5"/>
-      <c r="S15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>107</v>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="U15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -2260,13 +2354,13 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7">
@@ -2276,16 +2370,16 @@
         <v>7</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O16" s="5">
         <v>1006</v>
@@ -2294,19 +2388,21 @@
         <v>28</v>
       </c>
       <c r="Q16" s="5"/>
-      <c r="S16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>108</v>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="U16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -2315,13 +2411,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="7">
@@ -2331,16 +2427,16 @@
         <v>7</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O17" s="5">
         <v>1007</v>
@@ -2349,19 +2445,21 @@
         <v>28</v>
       </c>
       <c r="Q17" s="5"/>
-      <c r="S17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>109</v>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="U17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -2370,16 +2468,16 @@
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -2388,16 +2486,16 @@
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O18" s="5">
         <v>10008</v>
@@ -2406,45 +2504,47 @@
         <v>28</v>
       </c>
       <c r="Q18" s="5"/>
-      <c r="S18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>110</v>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="U18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
